--- a/biology/Biologie cellulaire et moléculaire/Axonème/Axonème.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Axonème/Axonème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Axon%C3%A8me</t>
+          <t>Axonème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'axonème est la partie axiale et motrice d'un cil ou d'un flagelle d'une cellule eucaryote. Par exemple dans le flagelle du spermatozoïde.
 L'axonème le plus souvent cité est constitué d'un cylindre de 9 doublets de microtubules qui, associés entre eux par des moteurs moléculaires (les bras de dynéine) et des protéines élastiques (les liens de nexine), induisent le mouvement de ces organites. On a pu expérimentalement démontrer que c'est le glissement relatif et périodique des doublets de microtubules qui est à l'origine du battement des cils et des flagelles. 
